--- a/Design/플레이어 문서.xlsx
+++ b/Design/플레이어 문서.xlsx
@@ -19,240 +19,337 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>공격타입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대검</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스테이터스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>변수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>변수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>파라메터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>생명력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>m_nAttack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이동속도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>100(1s:1m)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기술</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기술명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>시전시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>딜레이시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기술범위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스테이터스변화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격속도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>최소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>최대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>현재</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>m_nCurrHP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>m_nMaxHP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>현재</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기본</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>현재</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>m_nCurrSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>m_nIdleSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>m_nIdleAttackSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>m_nCurrAttackSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>좌 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>좌 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>좌 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우 차지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>내려치기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>올려치기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>점프 후 내려치기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>횡베기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회전베기 2타</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회전베기 1타</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>차지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0.7s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>특이사항</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우클릭 1타보다 1.5배 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>구르기 보다 가까운 거리 이동 
 무적타이밍 x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2s 
 (종료 후)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스킬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴급회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광폭화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전 후 5s간
+이동속도 30% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10s간 지속 후 3s간 공격, 회피 불능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도, 이동속도 50%상승
+공격력 100%추가증가
+피격 1회 면역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신에게 적용된
+상태이상 해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 모션 중 회피가능
+시전을 위한 다른 커맨드나 조작 필요하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5s간 이동속도 30% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용맹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~7m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 접근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근 중 피격 면역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -268,17 +365,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -516,93 +613,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,424 +983,480 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="11.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="41" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="5" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="19" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="24" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="10">
         <v>1</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="10">
         <v>100</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="10">
         <v>10</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="5" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="10"/>
+      <c r="I7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="10">
         <v>2</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="10">
         <v>2</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="10">
         <v>4</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="10">
         <v>4</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="9" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="10">
         <v>0</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="10">
         <v>3</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="20" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="18">
         <v>6</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="24" t="s">
+      <c r="F16" s="28"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="10"/>
+      <c r="H18" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A8:I8"/>
@@ -1315,8 +1467,12 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Design/플레이어 문서.xlsx
+++ b/Design/플레이어 문서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t>공격타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,10 +256,6 @@
   </si>
   <si>
     <t>즉시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -328,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0~7m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,6 +341,18 @@
   </si>
   <si>
     <t>접근 중 피격 면역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1332,10 +1336,10 @@
         <v>57</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="D17" s="10">
         <v>0</v>
@@ -1344,20 +1348,20 @@
         <v>58</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -1367,81 +1371,81 @@
         <v>58</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10">
         <v>0</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10">
         <v>0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10">
         <v>0</v>
       </c>
       <c r="E21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
